--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445260.0738001367</v>
+        <v>-451122.3938353164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12169804.21412154</v>
+        <v>12168624.2553407</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372.2495207160744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>221.3943835365719</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968129</v>
+        <v>50.6435372072262</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>106.835893118172</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>255.4466500070236</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>376.407654043436</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>126.8422392194424</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226574</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>35.95701122794162</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1114,7 +1114,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>138.1106488974401</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>293.0683194783568</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.59793155298393</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.64940239199029</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>149.375080984101</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>48.63956445460379</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>48.46589857590284</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>87.16751742380683</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>195.6285265675846</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>166.5430216364788</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
-        <v>35.46724931824173</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>50.66398400445312</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658114</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>993.2906950272375</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="C2" t="n">
-        <v>993.2906950272375</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="D2" t="n">
-        <v>607.8495662439052</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="F2" t="n">
-        <v>190.955127773883</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1085.386573341138</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.5558767139</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606229</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023272</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.79102099156</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="X2" t="n">
-        <v>1765.79102099156</v>
+        <v>678.2966927093171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.300311912161</v>
+        <v>678.2966927093171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245757</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634669</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.64849422565</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196198</v>
+        <v>304.8968413485536</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196198</v>
+        <v>149.4182903100476</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196198</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196198</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.17098830614</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.29862817994</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518204</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549413</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591121</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367699</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737751</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2050.881980370328</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>1765.443188612229</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V4" t="n">
-        <v>1507.416269413215</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W4" t="n">
-        <v>1507.416269413215</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.335947196198</v>
+        <v>473.1508952491081</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.683246726791</v>
+        <v>1263.279063078478</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.473495167765</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.473495167765</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>50.62559822793124</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150839</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.868375788301</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023272</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023272</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V5" t="n">
-        <v>1794.683246726791</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.683246726791</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.683246726791</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.683246726791</v>
+        <v>1263.279063078478</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585115</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>906.6300559363337</v>
       </c>
       <c r="U7" t="n">
-        <v>423.7848383464424</v>
+        <v>621.1912641782346</v>
       </c>
       <c r="V7" t="n">
-        <v>157.8054931672667</v>
+        <v>355.2119189990589</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1673.129190464088</v>
+        <v>662.0928778292166</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>662.0928778292166</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>662.0928778292166</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>662.0928778292166</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>649.2388433995984</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>2069.619899543487</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.619899543487</v>
+        <v>1058.583586908615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1673.129190464088</v>
+        <v>662.0928778292166</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534.5182705774242</v>
+        <v>763.5519739517948</v>
       </c>
       <c r="C10" t="n">
-        <v>534.5182705774242</v>
+        <v>714.463154201306</v>
       </c>
       <c r="D10" t="n">
-        <v>534.5182705774242</v>
+        <v>558.8300411038207</v>
       </c>
       <c r="E10" t="n">
-        <v>534.5182705774242</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>534.5182705774242</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.175009429187</v>
+        <v>1691.856237801877</v>
       </c>
       <c r="C11" t="n">
-        <v>1296.79578307831</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>726.0449080766011</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2962.108232106552</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2962.108232106552</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2962.108232106552</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.224243848344</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.567913927594</v>
+        <v>2345.249142300285</v>
       </c>
       <c r="Y11" t="n">
-        <v>1946.87347999439</v>
+        <v>2020.55470836708</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.8305097821773</v>
+        <v>479.2406156985697</v>
       </c>
       <c r="C13" t="n">
-        <v>268.8305097821773</v>
+        <v>380.8317729107529</v>
       </c>
       <c r="D13" t="n">
-        <v>268.8305097821773</v>
+        <v>296.9949349594615</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752044</v>
+        <v>296.9949349594615</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>211.4652753186284</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127915</v>
+        <v>955.5022722034682</v>
       </c>
       <c r="W13" t="n">
-        <v>582.430342890163</v>
+        <v>743.9681452808397</v>
       </c>
       <c r="X13" t="n">
-        <v>420.14629581934</v>
+        <v>743.9681452808397</v>
       </c>
       <c r="Y13" t="n">
-        <v>268.8305097821773</v>
+        <v>592.652359243677</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492975</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185752</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654567</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2629.678078583324</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2330.475318697806</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X14" t="n">
-        <v>2012.818988777056</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1688.124554843851</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>267.2368287014127</v>
+        <v>509.9602217740415</v>
       </c>
       <c r="C16" t="n">
-        <v>267.2368287014127</v>
+        <v>411.5513789862246</v>
       </c>
       <c r="D16" t="n">
-        <v>267.2368287014127</v>
+        <v>411.5513789862246</v>
       </c>
       <c r="E16" t="n">
-        <v>183.4742917068091</v>
+        <v>327.7888419916211</v>
       </c>
       <c r="F16" t="n">
-        <v>97.94463206597587</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="G16" t="n">
-        <v>97.94463206597587</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
-        <v>97.94463206597587</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310116</v>
+        <v>988.1475398457744</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771345</v>
+        <v>988.1475398457744</v>
       </c>
       <c r="W16" t="n">
-        <v>694.248405354506</v>
+        <v>936.9717984271346</v>
       </c>
       <c r="X16" t="n">
-        <v>531.9643582836829</v>
+        <v>774.6877513563115</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.6485722465201</v>
+        <v>623.3719653191488</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,16 +5546,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797591</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099314</v>
@@ -5744,16 +5744,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6011,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
         <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938487</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2602.11893248314</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230628</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1256.456677426991</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786172</v>
+        <v>1802.457577471572</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423634</v>
+        <v>2330.268861109034</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315963</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076167</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.113634139075</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2353.183537567296</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>496.282672081206</v>
+        <v>618.7004357135977</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458887</v>
+        <v>910.7916726541107</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104168</v>
+        <v>1093.98130668532</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,10 +6968,10 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,25 +7570,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,22 +7810,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>648.4150197390375</v>
       </c>
       <c r="N2" t="n">
-        <v>453.3299088860288</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>465.3882399439974</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508401</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,13 +8222,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376819</v>
+        <v>305.272005197043</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>292.4021013970209</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
-        <v>129.6793274559065</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,7 +8541,7 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585533</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401153</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>263.0728605086217</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>161.133324116666</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>101.5477195668417</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.45901304875474</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.325683543010101</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>71.97890224120022</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>129.6677106501847</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.21791939631922</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.754801648949</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1067666.036071325</v>
+        <v>1067064.488457565</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1067666.036071325</v>
+        <v>1067064.488457565</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>950090.9218458367</v>
+        <v>950090.9218458366</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950090.9218458367</v>
+        <v>950090.9218458366</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1071735.218925783</v>
+        <v>1071735.218925782</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="C2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="D2" t="n">
         <v>216398.6137120282</v>
       </c>
       <c r="E2" t="n">
+        <v>191230.8281092806</v>
+      </c>
+      <c r="F2" t="n">
         <v>191230.8281092805</v>
       </c>
-      <c r="F2" t="n">
-        <v>191230.8281092806</v>
-      </c>
       <c r="G2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="H2" t="n">
+        <v>216398.6137120282</v>
+      </c>
+      <c r="I2" t="n">
+        <v>216398.6137120282</v>
+      </c>
+      <c r="J2" t="n">
         <v>216398.6137120281</v>
-      </c>
-      <c r="I2" t="n">
-        <v>216398.6137120281</v>
-      </c>
-      <c r="J2" t="n">
-        <v>216398.6137120282</v>
       </c>
       <c r="K2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="L2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="M2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="N2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="O2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="P2" t="n">
         <v>216398.6137120281</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668201</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805107</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805109</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26457,7 +26457,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,25 +26488,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221436.1420740082</v>
+        <v>-217686.2438734738</v>
       </c>
       <c r="C6" t="n">
-        <v>-39231.19378215222</v>
+        <v>-43827.58683941865</v>
       </c>
       <c r="D6" t="n">
-        <v>-45246.99543992543</v>
+        <v>-52983.28466331706</v>
       </c>
       <c r="E6" t="n">
-        <v>-73970.83457265557</v>
+        <v>-74180.56611934517</v>
       </c>
       <c r="F6" t="n">
-        <v>38151.72690138906</v>
+        <v>37941.99535469932</v>
       </c>
       <c r="G6" t="n">
-        <v>-36848.47913980691</v>
+        <v>-36848.4791398067</v>
       </c>
       <c r="H6" t="n">
-        <v>10576.84639687516</v>
+        <v>10576.84639687533</v>
       </c>
       <c r="I6" t="n">
-        <v>10576.84639687522</v>
+        <v>10576.8463968753</v>
       </c>
       <c r="J6" t="n">
-        <v>-202465.0712004104</v>
+        <v>-195948.7860458372</v>
       </c>
       <c r="K6" t="n">
         <v>4337.077994092273</v>
       </c>
       <c r="L6" t="n">
-        <v>-50845.51094052897</v>
+        <v>-54894.34815100108</v>
       </c>
       <c r="M6" t="n">
-        <v>-31623.98306274787</v>
+        <v>-32675.67807393588</v>
       </c>
       <c r="N6" t="n">
-        <v>10576.84639687539</v>
+        <v>10576.84639687522</v>
       </c>
       <c r="O6" t="n">
-        <v>-17190.84764589588</v>
+        <v>-17190.84764589599</v>
       </c>
       <c r="P6" t="n">
-        <v>10576.84639687519</v>
+        <v>10576.84639687525</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,25 +26808,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.07030221924585</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773718</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.24027753820855</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>191.3311105487501</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626774</v>
+        <v>124.5704364758544</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>24.92758799112087</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>7.872901720360431</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,7 +27616,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>12.83609243866272</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>265.6835627691625</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343378</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.4048500855066</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>270.9204790594367</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,13 +27910,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>74.22072520303863</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>119.9051352016867</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>146.7124589214579</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O19" t="n">
-        <v>5.636002634527898</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.636002634528126</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082768</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599521</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566784</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254412</v>
+        <v>106.8683420224737</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,10 +30882,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>498.6899681413103</v>
       </c>
       <c r="N2" t="n">
-        <v>304.2114175482446</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>373.0011178946855</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315255</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,13 +34942,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135855</v>
+        <v>155.7081677729466</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>200.014979347709</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
-        <v>36.9917685670176</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,7 +35261,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043866</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.465299698097541</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094869</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634527946</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877748</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974475</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>579.4114063771445</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653361</v>
+        <v>295.0416534752657</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133901</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
